--- a/tables/DE/SDE_rand_1_bin_F_09_Cr_09_pop50/DE_table2_F2_dim10.xlsx
+++ b/tables/DE/SDE_rand_1_bin_F_09_Cr_09_pop50/DE_table2_F2_dim10.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>16370804606.81117</v>
       </c>
       <c r="AZ2" t="n">
-        <v>8687301328.648001</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>15027735869.68507</v>
+        <v>15154544560.50581</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>14434513215.18891</v>
@@ -1011,15 +1002,12 @@
         <v>16370804606.81117</v>
       </c>
       <c r="AZ3" t="n">
-        <v>8687301328.648001</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>14439966327.28312</v>
+        <v>14555019627.25582</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>20</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>8581770458.514599</v>
@@ -1172,15 +1160,12 @@
         <v>5936456293.931737</v>
       </c>
       <c r="AZ4" t="n">
-        <v>6800860781.813438</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>6793322330.625086</v>
+        <v>6793171561.601319</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>200</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>252458120.2551252</v>
@@ -1333,15 +1318,12 @@
         <v>273160287.4322631</v>
       </c>
       <c r="AZ5" t="n">
-        <v>167772055.6726473</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>211571938.9733192</v>
+        <v>212447936.6393326</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>400</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>15677445.28873538</v>
@@ -1494,15 +1476,12 @@
         <v>16516003.58287131</v>
       </c>
       <c r="AZ6" t="n">
-        <v>9582536.344837509</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>19623786.29861277</v>
+        <v>19824611.29768828</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>599</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>2733136.16963572</v>
@@ -1655,15 +1634,12 @@
         <v>2014576.93333841</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1157473.84695744</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>2604504.89584352</v>
+        <v>2633445.51682124</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>799</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>546718.3430584</v>
@@ -1816,15 +1792,12 @@
         <v>546107.62244279</v>
       </c>
       <c r="AZ8" t="n">
-        <v>81881.57000048</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>452407.44551289</v>
+        <v>459817.96302314</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>999</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>95976.33998587</v>
@@ -1977,15 +1950,12 @@
         <v>30495.12652695</v>
       </c>
       <c r="AZ9" t="n">
-        <v>14089.40834798</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>57507.11340485</v>
+        <v>58375.46750599</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>1199</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>9431.98664705</v>
@@ -2138,15 +2108,12 @@
         <v>3062.57460188</v>
       </c>
       <c r="AZ10" t="n">
-        <v>772.30687825</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>6164.08531196</v>
+        <v>6271.92088064</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>1399</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>831.25501763</v>
@@ -2299,15 +2266,12 @@
         <v>257.17263888</v>
       </c>
       <c r="AZ11" t="n">
-        <v>37.6767589</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>588.78496648</v>
+        <v>599.80713064</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>1598</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>39.57610269</v>
@@ -2460,15 +2424,12 @@
         <v>16.42954151</v>
       </c>
       <c r="AZ12" t="n">
-        <v>2.20259327</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>38.47759838</v>
+        <v>39.20309848</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>1798</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>1.98925843</v>
@@ -2621,15 +2582,12 @@
         <v>0.6363509899999999</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.13608953</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>2.97581673</v>
+        <v>3.03261127</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>1998</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>0.18515074</v>
@@ -2782,10 +2740,7 @@
         <v>0.05621434</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.01200959</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0.22187239</v>
+        <v>0.22606965</v>
       </c>
     </row>
   </sheetData>
